--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>守方</t>
   </si>
   <si>
+    <t>阿成</t>
+  </si>
+  <si>
     <t>最多可设置8个军团</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>张三</t>
   </si>
   <si>
     <t>攻方</t>
@@ -67,10 +76,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,17 +101,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +145,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,8 +200,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,29 +225,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -169,68 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,19 +260,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,151 +410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +451,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,39 +473,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -515,11 +493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +514,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -549,164 +542,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2246,87 +2245,188 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:20">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:20">
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="4" spans="19:20">
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:19">
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="S6" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="7" spans="19:19">
+      <c r="S7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="S8" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:19">
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="S9" s="1">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:19">
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="S10" s="1">
+        <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:19">
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="12" spans="19:19">
+      <c r="S12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="S13" s="1">
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:19">
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="S14" s="1">
+        <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="3:19">
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="S15" s="1">
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="16" spans="19:19">
+      <c r="S16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19">
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="S17" s="1">
+        <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>12</v>
+    <row r="18" spans="19:19">
+      <c r="S18" s="1">
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="19" spans="2:19">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="S20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="19:19">
+      <c r="S21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="19:19">
+      <c r="S22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="19:19">
+      <c r="S23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="19:19">
+      <c r="S24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="19:19">
+      <c r="S25" s="1">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>攻方</t>
+  </si>
+  <si>
+    <t>选择一个地块进行占领，与此地块的防守军团发生战斗</t>
+  </si>
   <si>
     <t>守方</t>
   </si>
@@ -24,49 +30,76 @@
     <t>阿成</t>
   </si>
   <si>
-    <t>最多可设置8个军团</t>
+    <t>可在一个地块上设置防守军团，对方占领此地块时，与之发生战斗</t>
   </si>
   <si>
     <t>李四</t>
   </si>
   <si>
+    <t>可在一个地块上设置伏击军团，对方占领次地块后，与之发生战斗。可与防守军团并存</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
-    <t>攻方</t>
-  </si>
-  <si>
-    <t>最多可出战7个军团</t>
+    <t>战斗规则</t>
+  </si>
+  <si>
+    <t>攻方的一个军团只能战斗1次，方战斗胜利后，占领该地</t>
+  </si>
+  <si>
+    <t>若守方未在战斗点设置军团，则直接占领</t>
+  </si>
+  <si>
+    <t>挑战开始前，除了【高地】外，其余战斗点都不可见</t>
+  </si>
+  <si>
+    <t>占领其中一个【高地】，可对该高地对应方位的战斗点可见，并且可进攻对应方位【侧门】</t>
+  </si>
+  <si>
+    <t>同时占领两个【高地】，可对该高地对应方位的战斗点可见，并且可见【主城】和【后门】</t>
+  </si>
+  <si>
+    <t>并且可进攻【后门】</t>
+  </si>
+  <si>
+    <t>同时占领两个【前门】，可攻击主城</t>
+  </si>
+  <si>
+    <t>占领【左门】、【右门】或【后门】，可攻击主城</t>
+  </si>
+  <si>
+    <t>胜负判定</t>
+  </si>
+  <si>
+    <t>攻占主城或合围主城</t>
+  </si>
+  <si>
+    <t>战报</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>排行榜奖励阶梯</t>
+  </si>
+  <si>
+    <t>在占领期间，每小时可额外领取宝箱</t>
+  </si>
+  <si>
+    <t>晚上10至次日8点之间，没有宝箱产出</t>
   </si>
   <si>
     <t>挑战规则</t>
   </si>
   <si>
-    <t>攻方的一个军团只能战斗1次</t>
-  </si>
-  <si>
-    <t>若守方未在战斗点设置军团，同样可以挑战</t>
-  </si>
-  <si>
-    <t>攻方战斗胜利后，占领该地</t>
-  </si>
-  <si>
-    <t>挑战开始前，除了【高地】外，其余战斗点都不可见</t>
-  </si>
-  <si>
-    <t>挑战其中一个【高地】后，可对该高地方位对应的两个战斗点可见</t>
-  </si>
-  <si>
-    <t>挑战另一个【高地】后，可对该高地方位对应的两个战斗点可见，并且可见主城</t>
-  </si>
-  <si>
-    <t>占领【南门左】或【南门右】后，才能进攻【主城】</t>
-  </si>
-  <si>
-    <t>胜负判定</t>
-  </si>
-  <si>
-    <t>攻占主城或合围主城</t>
+    <t>每天挑战次数为10次</t>
+  </si>
+  <si>
+    <t>挑战胜利后，与挑战目标互换排行榜位置</t>
+  </si>
+  <si>
+    <t>NPC</t>
   </si>
 </sst>
 </file>
@@ -75,9 +108,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -102,7 +135,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,71 +163,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,8 +185,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -217,15 +241,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +277,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -260,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,30 +484,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,17 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,21 +537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -551,6 +545,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -778,13 +811,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -794,7 +827,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8130540" y="1927860"/>
+          <a:off x="8130540" y="1722120"/>
           <a:ext cx="845820" cy="792480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -835,13 +868,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>363220</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>591820</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>73660</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -851,7 +884,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7152640" y="1955800"/>
+          <a:off x="7152640" y="1750060"/>
           <a:ext cx="845820" cy="792480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -979,7 +1012,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>西门</a:t>
+            <a:t>侧门</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>左</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -991,13 +1032,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>147320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1007,7 +1048,163 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8125460" y="1000760"/>
+          <a:off x="8125460" y="794385"/>
+          <a:ext cx="845820" cy="793115"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>后门</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9136380" y="1729740"/>
           <a:ext cx="845820" cy="792480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1135,7 +1332,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>北门</a:t>
+            <a:t>侧门</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>右</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1145,25 +1350,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9136380" y="1935480"/>
+          <a:off x="7586980" y="2725420"/>
           <a:ext cx="845820" cy="792480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1291,7 +1496,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>东门</a:t>
+            <a:t>前门</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>左</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1301,25 +1514,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180340</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>408940</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>269240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7586980" y="2931160"/>
+          <a:off x="8681720" y="2715260"/>
           <a:ext cx="845820" cy="792480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1447,7 +1660,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>南门</a:t>
+            <a:t>前门</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1455,7 +1668,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>左</a:t>
+            <a:t>右</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1465,25 +1678,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>40640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>535940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>269240</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8681720" y="2921000"/>
+          <a:off x="6090920" y="3218180"/>
           <a:ext cx="845820" cy="792480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1611,170 +1824,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>南门</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>右</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>535940</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>147320</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="圆角矩形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6090920" y="3423920"/>
-          <a:ext cx="845820" cy="792480"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>高地</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1795,13 +1844,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1811,7 +1860,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10287000" y="3459480"/>
+          <a:off x="10287000" y="3253740"/>
           <a:ext cx="845820" cy="792480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2245,10 +2294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:T25"/>
+  <dimension ref="B1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -2258,175 +2307,164 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="1">
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="1" t="s">
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1">
         <v>1</v>
       </c>
+      <c r="T4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="3:20">
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="3:20">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
         <v>2</v>
       </c>
-      <c r="S3" s="1">
-        <v>2</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>3</v>
+      <c r="T5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="19:20">
-      <c r="S4" s="1">
-        <v>3</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19">
+    <row r="6" spans="3:20">
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="19:19">
-      <c r="S7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:19">
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S9" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:19">
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="10" spans="19:19">
       <c r="S10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:19">
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="19:19">
-      <c r="S12" s="1">
-        <v>11</v>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:19">
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" s="1">
-        <v>12</v>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="14" spans="3:19">
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="1">
-        <v>13</v>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:19">
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S15" s="1">
-        <v>14</v>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="16" spans="19:19">
-      <c r="S16" s="1">
-        <v>15</v>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:19">
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" s="1">
-        <v>16</v>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="18" spans="19:19">
-      <c r="S18" s="1">
-        <v>17</v>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" s="1">
-        <v>18</v>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="1">
-        <v>19</v>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="21" spans="19:19">
-      <c r="S21" s="1">
-        <v>20</v>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="22" spans="19:19">
-      <c r="S22" s="1">
-        <v>21</v>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="23" spans="19:19">
-      <c r="S23" s="1">
-        <v>22</v>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="24" spans="19:19">
-      <c r="S24" s="1">
-        <v>23</v>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="25" spans="19:19">
-      <c r="S25" s="1">
-        <v>24</v>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="思路" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="思路1" sheetId="1" r:id="rId1"/>
+    <sheet name="思路2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>攻方</t>
   </si>
@@ -100,6 +100,66 @@
   </si>
   <si>
     <t>NPC</t>
+  </si>
+  <si>
+    <t>战斗</t>
+  </si>
+  <si>
+    <t>选择战斗点后进入战斗/布阵页面</t>
+  </si>
+  <si>
+    <t>战斗点有预设单位，以及上阵数量上限</t>
+  </si>
+  <si>
+    <t>每个卡牌只能使用在一个战斗点中</t>
+  </si>
+  <si>
+    <t>战斗胜利后，进入下一关卡</t>
+  </si>
+  <si>
+    <t>战役</t>
+  </si>
+  <si>
+    <t>会有数个战役，比如战役1虎牢关，战役2官渡之战。随着等级而开启</t>
+  </si>
+  <si>
+    <t>进入战役前，需要选择进攻/防守的军团</t>
+  </si>
+  <si>
+    <t>一个军团只能防守一个战役</t>
+  </si>
+  <si>
+    <t>一场战役可有1个或数个军团参与，由战役决定（比如赤壁之战，允许2个军团）</t>
+  </si>
+  <si>
+    <t>判断战役成功或失败的基本条件，由战役决定（比如虎牢关之战为攻破敌方最后一个关卡，官渡之战为攻破或围城）</t>
+  </si>
+  <si>
+    <t>战役有排行榜，早上8点至晚上10点，每隔一小时获得宝箱</t>
+  </si>
+  <si>
+    <t>宝箱可积累，但有数量上限（6）</t>
+  </si>
+  <si>
+    <t>排行榜越靠前，可获得的宝箱等级越高</t>
+  </si>
+  <si>
+    <t>每隔一段时间会有NPC进攻玩家的防守阵容</t>
+  </si>
+  <si>
+    <t>进攻方式为每日任务</t>
+  </si>
+  <si>
+    <t>接到任务，用[刘备]或[孙权]军团去进行一次【虎牢关之战】</t>
+  </si>
+  <si>
+    <t>进攻对象为匹配排行榜上比自己靠前的玩家或NPC</t>
+  </si>
+  <si>
+    <t>进攻胜利后，与比自身排名高的玩家交换排行榜的位置</t>
+  </si>
+  <si>
+    <t>根据任务进度，可领取任务宝箱</t>
   </si>
 </sst>
 </file>
@@ -107,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -135,7 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,7 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,23 +223,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,16 +252,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,19 +291,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,7 +317,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +353,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +389,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,43 +479,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,97 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,20 +579,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,21 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -584,6 +633,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2002,6 +2062,1197 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="组合 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7421880" y="182880"/>
+          <a:ext cx="5379720" cy="3802380"/>
+          <a:chOff x="11676" y="276"/>
+          <a:chExt cx="8472" cy="5988"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="圆角矩形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11676" y="276"/>
+            <a:ext cx="8472" cy="5988"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="椭圆 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15936" y="2100"/>
+            <a:ext cx="1068" cy="1068"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>斩将台</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="椭圆 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17984" y="1424"/>
+            <a:ext cx="1475" cy="1475"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>洛</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>阳</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="椭圆 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13748" y="1376"/>
+            <a:ext cx="1068" cy="1068"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>虎牢关</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="椭圆 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11776" y="2932"/>
+            <a:ext cx="1068" cy="1068"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>曲阳道</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="6" idx="7"/>
+            <a:endCxn id="5" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="12688" y="2288"/>
+            <a:ext cx="1216" cy="800"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="5"/>
+            <a:endCxn id="3" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14660" y="2288"/>
+            <a:ext cx="1276" cy="346"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="6"/>
+            <a:endCxn id="4" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17004" y="2634"/>
+            <a:ext cx="1196" cy="49"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>363220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="组合 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8412480" y="1988820"/>
+          <a:ext cx="3677920" cy="1630680"/>
+          <a:chOff x="13296" y="3084"/>
+          <a:chExt cx="5792" cy="2568"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="椭圆 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13296" y="4584"/>
+            <a:ext cx="1068" cy="1068"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>斜方谷</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="椭圆 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15576" y="4572"/>
+            <a:ext cx="1068" cy="1068"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>函谷关</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="椭圆 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18020" y="4196"/>
+            <a:ext cx="1068" cy="1068"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>玄武门</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="12" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14340" y="4956"/>
+            <a:ext cx="1236" cy="150"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="12" idx="6"/>
+            <a:endCxn id="13" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="16644" y="4730"/>
+            <a:ext cx="1376" cy="376"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="13" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="18554" y="3084"/>
+            <a:ext cx="238" cy="1112"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2296,8 +3547,8 @@
   <sheetPr/>
   <dimension ref="B1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -2478,17 +3729,127 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="思路1" sheetId="1" r:id="rId1"/>
     <sheet name="思路2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="战役表" sheetId="3" r:id="rId3"/>
+    <sheet name="战役关卡表" sheetId="5" r:id="rId4"/>
+    <sheet name="关卡表" sheetId="4" r:id="rId5"/>
+    <sheet name="npc战斗数据" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>攻方</t>
   </si>
@@ -105,36 +108,60 @@
     <t>战斗</t>
   </si>
   <si>
-    <t>选择战斗点后进入战斗/布阵页面</t>
-  </si>
-  <si>
-    <t>战斗点有预设单位，以及上阵数量上限</t>
+    <t>战役中有多个战斗点</t>
+  </si>
+  <si>
+    <t>每个战斗点有占据积分（功绩）</t>
+  </si>
+  <si>
+    <t>战役的胜利判定条件为积分总数对比</t>
+  </si>
+  <si>
+    <t>积分超过对方后，判定为胜利，自动结束战役</t>
+  </si>
+  <si>
+    <t>战斗点由行军路线连接</t>
+  </si>
+  <si>
+    <t>每条行军路线都有一个起始战斗点和结束战斗点</t>
+  </si>
+  <si>
+    <t>选择军团和起始点后，【前进】后，军团和线路进行锁定</t>
+  </si>
+  <si>
+    <t>战斗胜利后，进入下一关卡</t>
+  </si>
+  <si>
+    <t>战斗点规则</t>
+  </si>
+  <si>
+    <t>预设单位</t>
+  </si>
+  <si>
+    <t>上阵数上限</t>
+  </si>
+  <si>
+    <t>回合数上限</t>
+  </si>
+  <si>
+    <t>占据积分</t>
   </si>
   <si>
     <t>每个卡牌只能使用在一个战斗点中</t>
   </si>
   <si>
-    <t>战斗胜利后，进入下一关卡</t>
-  </si>
-  <si>
     <t>战役</t>
   </si>
   <si>
     <t>会有数个战役，比如战役1虎牢关，战役2官渡之战。随着等级而开启</t>
   </si>
   <si>
-    <t>进入战役前，需要选择进攻/防守的军团</t>
+    <t>战役的差异化设计（关卡点和行军路线，军团数）</t>
   </si>
   <si>
     <t>一个军团只能防守一个战役</t>
   </si>
   <si>
-    <t>一场战役可有1个或数个军团参与，由战役决定（比如赤壁之战，允许2个军团）</t>
-  </si>
-  <si>
-    <t>判断战役成功或失败的基本条件，由战役决定（比如虎牢关之战为攻破敌方最后一个关卡，官渡之战为攻破或围城）</t>
-  </si>
-  <si>
     <t>战役有排行榜，早上8点至晚上10点，每隔一小时获得宝箱</t>
   </si>
   <si>
@@ -160,6 +187,156 @@
   </si>
   <si>
     <t>根据任务进度，可领取任务宝箱</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>战役名</t>
+  </si>
+  <si>
+    <t>战役名图片</t>
+  </si>
+  <si>
+    <t>背景图片</t>
+  </si>
+  <si>
+    <t>战役故事</t>
+  </si>
+  <si>
+    <t>开启等级</t>
+  </si>
+  <si>
+    <t>战役关卡id</t>
+  </si>
+  <si>
+    <t>npc名字</t>
+  </si>
+  <si>
+    <t>npc头像</t>
+  </si>
+  <si>
+    <t>虎牢关</t>
+  </si>
+  <si>
+    <t>虎牢关发生了什么。。</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>官渡之战</t>
+  </si>
+  <si>
+    <t>官渡发生了什么。。</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4</t>
+  </si>
+  <si>
+    <t>关卡名</t>
+  </si>
+  <si>
+    <t>关卡故事</t>
+  </si>
+  <si>
+    <t>关卡图片</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>上阵数</t>
+  </si>
+  <si>
+    <t>回合数</t>
+  </si>
+  <si>
+    <t>npc战斗数据</t>
+  </si>
+  <si>
+    <t>曲阳道</t>
+  </si>
+  <si>
+    <t>发生了什么。。</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21</t>
+  </si>
+  <si>
+    <t>枣城</t>
+  </si>
+  <si>
+    <t>黄河渡</t>
+  </si>
+  <si>
+    <t>南皮城</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>旗帜</t>
+  </si>
+  <si>
+    <t>pos1</t>
+  </si>
+  <si>
+    <t>pos2</t>
+  </si>
+  <si>
+    <t>pos3</t>
+  </si>
+  <si>
+    <t>pos4</t>
+  </si>
+  <si>
+    <t>pos5</t>
+  </si>
+  <si>
+    <t>pos6</t>
+  </si>
+  <si>
+    <t>pos7</t>
+  </si>
+  <si>
+    <t>pos8</t>
+  </si>
+  <si>
+    <t>pos9</t>
+  </si>
+  <si>
+    <t>pos10</t>
+  </si>
+  <si>
+    <t>pos11</t>
+  </si>
+  <si>
+    <t>pos12</t>
+  </si>
+  <si>
+    <t>pos13</t>
+  </si>
+  <si>
+    <t>pos14</t>
+  </si>
+  <si>
+    <t>pos15</t>
+  </si>
+  <si>
+    <t>pos16</t>
+  </si>
+  <si>
+    <t>pos17</t>
+  </si>
+  <si>
+    <t>pos18</t>
+  </si>
+  <si>
+    <t>pos19</t>
   </si>
 </sst>
 </file>
@@ -167,9 +344,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -195,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,8 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,15 +400,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +440,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -252,24 +470,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,40 +486,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +503,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,13 +530,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,13 +554,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,37 +614,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +656,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,85 +692,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,17 +739,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,17 +763,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,10 +829,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,7 +841,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,124 +850,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2072,262 +2249,1563 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>358140</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="组合 9"/>
+        <xdr:cNvPr id="28" name="组合 27"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7421880" y="182880"/>
-          <a:ext cx="5379720" cy="3802380"/>
-          <a:chOff x="11676" y="276"/>
-          <a:chExt cx="8472" cy="5988"/>
+          <a:off x="7764780" y="38100"/>
+          <a:ext cx="5379720" cy="5036820"/>
+          <a:chOff x="11328" y="156"/>
+          <a:chExt cx="8472" cy="7608"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="10" name="组合 9"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="0">
+            <a:off x="11328" y="156"/>
+            <a:ext cx="8472" cy="5988"/>
+            <a:chOff x="11676" y="276"/>
+            <a:chExt cx="8472" cy="5988"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="圆角矩形 1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11676" y="276"/>
+              <a:ext cx="8472" cy="5988"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="椭圆 2"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15936" y="2100"/>
+              <a:ext cx="1068" cy="1068"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>斩将台</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="椭圆 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17984" y="837"/>
+              <a:ext cx="2062" cy="2062"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>洛阳</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>上阵数：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>10</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>回合数：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>30</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>积分：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>30</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="椭圆 4"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13748" y="1376"/>
+              <a:ext cx="1068" cy="1068"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>虎牢关</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="椭圆 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11776" y="2932"/>
+              <a:ext cx="1068" cy="1068"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>曲阳道</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="6" idx="7"/>
+              <a:endCxn id="5" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="12688" y="2288"/>
+              <a:ext cx="1216" cy="800"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="5" idx="5"/>
+              <a:endCxn id="3" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14660" y="2288"/>
+              <a:ext cx="1276" cy="346"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="3" idx="6"/>
+              <a:endCxn id="4" idx="3"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="17004" y="2598"/>
+              <a:ext cx="1282" cy="37"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="组合 16"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="0">
+            <a:off x="12888" y="4112"/>
+            <a:ext cx="5792" cy="1456"/>
+            <a:chOff x="13296" y="4196"/>
+            <a:chExt cx="5792" cy="1456"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="椭圆 10"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13296" y="4584"/>
+              <a:ext cx="1068" cy="1068"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>斜方谷</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="椭圆 11"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15576" y="4572"/>
+              <a:ext cx="1068" cy="1068"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>函谷关</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="椭圆 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18020" y="4196"/>
+              <a:ext cx="1068" cy="1068"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>玄武门</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="12" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14340" y="4956"/>
+              <a:ext cx="1236" cy="150"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp>
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="12" idx="6"/>
+              <a:endCxn id="13" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="16644" y="4730"/>
+              <a:ext cx="1376" cy="376"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow" w="med" len="med"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="22" name="组合 21"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="0">
+            <a:off x="11580" y="6252"/>
+            <a:ext cx="8088" cy="1512"/>
+            <a:chOff x="11868" y="6312"/>
+            <a:chExt cx="8088" cy="1512"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="矩形 17"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11868" y="6312"/>
+              <a:ext cx="8088" cy="1512"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="矩形 18"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12324" y="6480"/>
+              <a:ext cx="924" cy="1128"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>刘</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="矩形 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13580" y="6476"/>
+              <a:ext cx="924" cy="1128"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>曹</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="矩形 20"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14932" y="6484"/>
+              <a:ext cx="924" cy="1128"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>孙</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="圆角矩形 1"/>
+          <xdr:cNvPr id="23" name="椭圆 22"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11676" y="276"/>
-            <a:ext cx="8472" cy="5988"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="椭圆 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15936" y="2100"/>
-            <a:ext cx="1068" cy="1068"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>斩将台</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="椭圆 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="17984" y="1424"/>
-            <a:ext cx="1475" cy="1475"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>洛</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>阳</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="椭圆 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13748" y="1376"/>
+            <a:off x="13932" y="2748"/>
             <a:ext cx="1068" cy="1068"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
@@ -2459,157 +3937,18 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="椭圆 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11776" y="2932"/>
-            <a:ext cx="1068" cy="1068"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>曲阳道</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+          <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="6" idx="7"/>
-            <a:endCxn id="5" idx="3"/>
+            <a:stCxn id="5" idx="4"/>
+            <a:endCxn id="23" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="12688" y="2288"/>
-            <a:ext cx="1216" cy="800"/>
+          <a:xfrm>
+            <a:off x="13934" y="2324"/>
+            <a:ext cx="532" cy="424"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2635,16 +3974,16 @@
       </xdr:cxnSp>
       <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+          <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="5" idx="5"/>
-            <a:endCxn id="3" idx="2"/>
+            <a:stCxn id="23" idx="6"/>
+            <a:endCxn id="3" idx="4"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14660" y="2288"/>
-            <a:ext cx="1276" cy="346"/>
+          <a:xfrm flipV="1">
+            <a:off x="15000" y="3048"/>
+            <a:ext cx="1122" cy="234"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2668,590 +4007,46 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="3" idx="6"/>
-            <a:endCxn id="4" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="17004" y="2634"/>
-            <a:ext cx="1196" cy="49"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>363220</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="组合 16"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="8412480" y="1988820"/>
-          <a:ext cx="3677920" cy="1630680"/>
-          <a:chOff x="13296" y="3084"/>
-          <a:chExt cx="5792" cy="2568"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="椭圆 10"/>
+          <xdr:cNvPr id="27" name="圆角矩形 26"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13296" y="4584"/>
-            <a:ext cx="1068" cy="1068"/>
+            <a:off x="18300" y="5124"/>
+            <a:ext cx="1380" cy="1092"/>
           </a:xfrm>
-          <a:prstGeom prst="ellipse">
+          <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="accent3"/>
           </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
           <a:p>
-            <a:pPr algn="l"/>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>斜方谷</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+              <a:t>前进</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="椭圆 11"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15576" y="4572"/>
-            <a:ext cx="1068" cy="1068"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>函谷关</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="椭圆 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="18020" y="4196"/>
-            <a:ext cx="1068" cy="1068"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>玄武门</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="12" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14340" y="4956"/>
-            <a:ext cx="1236" cy="150"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="12" idx="6"/>
-            <a:endCxn id="13" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="16644" y="4730"/>
-            <a:ext cx="1376" cy="376"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="13" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="18554" y="3084"/>
-            <a:ext cx="238" cy="1112"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3729,72 +4524,122 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F37"/>
+  <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -3804,45 +4649,45 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3856,16 +4701,428 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <cols>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
+    <col min="3" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="21.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="11.8888888888889" customWidth="1"/>
+    <col min="8" max="9" width="8.88888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="58.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="思路1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
   <si>
     <t>攻方</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>一个军团只能防守一个战役</t>
+  </si>
+  <si>
+    <t>玩家按照等级分组，包括npc</t>
   </si>
   <si>
     <t>战役有排行榜，早上8点至晚上10点，每隔一小时获得宝箱</t>
@@ -344,9 +347,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -385,9 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,9 +404,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,47 +449,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +466,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -478,7 +480,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -502,14 +512,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,7 +533,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,55 +599,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,25 +635,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,13 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,7 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,37 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,17 +742,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,11 +777,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,19 +810,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,133 +844,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3070,7 +3073,7 @@
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
                 <a:t>斜方谷</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -4048,6 +4051,59 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357505</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7764145" y="678180"/>
+          <a:ext cx="3559175" cy="1874520"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4524,10 +4580,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G37"/>
+  <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
@@ -4622,72 +4678,77 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+    <row r="26" spans="3:3">
+      <c r="C26" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4703,8 +4764,8 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -4718,36 +4779,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4755,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4764,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4773,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -4784,7 +4845,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4793,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -4822,10 +4883,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4833,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4889,28 +4950,28 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4918,10 +4979,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4936,7 +4997,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4944,10 +5005,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4967,10 +5028,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -4990,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5013,10 +5074,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5050,70 +5111,70 @@
   <sheetData>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="思路1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,10 @@
     <t>选择军团和起始点后，【前进】后，军团和线路进行锁定</t>
   </si>
   <si>
-    <t>战斗胜利后，进入下一关卡</t>
+    <t>战斗胜利后，返回到关卡界面，自动行进至下一关卡。并扣除上一场战斗中使用过的卡牌</t>
+  </si>
+  <si>
+    <t>战斗失败后，返回到关卡界面，停留在当前关卡。并扣除上一场战斗中使用过的卡牌</t>
   </si>
   <si>
     <t>战斗点规则</t>
@@ -145,9 +148,6 @@
   </si>
   <si>
     <t>占据积分</t>
-  </si>
-  <si>
-    <t>每个卡牌只能使用在一个战斗点中</t>
   </si>
   <si>
     <t>战役</t>
@@ -347,8 +347,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -382,13 +382,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -396,7 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,10 +404,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,15 +433,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -449,16 +480,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -466,32 +489,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,6 +503,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -510,7 +511,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -533,7 +533,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,31 +581,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,25 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,67 +665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,6 +724,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,22 +772,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,6 +788,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,15 +819,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -832,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,31 +844,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,100 +880,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4583,7 +4583,7 @@
   <dimension ref="B1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
@@ -4631,8 +4631,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4641,40 +4641,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="思路1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="战役关卡表" sheetId="5" r:id="rId4"/>
     <sheet name="关卡表" sheetId="4" r:id="rId5"/>
     <sheet name="npc战斗数据" sheetId="6" r:id="rId6"/>
+    <sheet name="UI" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
   <si>
     <t>攻方</t>
   </si>
@@ -129,12 +130,18 @@
     <t>选择军团和起始点后，【前进】后，军团和线路进行锁定</t>
   </si>
   <si>
+    <t>每条线路上的全部战斗点的上阵数总和，约等于军团的出战数</t>
+  </si>
+  <si>
     <t>战斗胜利后，返回到关卡界面，自动行进至下一关卡。并扣除上一场战斗中使用过的卡牌</t>
   </si>
   <si>
     <t>战斗失败后，返回到关卡界面，停留在当前关卡。并扣除上一场战斗中使用过的卡牌</t>
   </si>
   <si>
+    <t>防守成功的战斗，再次被挑战时，存活的卡牌按照回血量回血</t>
+  </si>
+  <si>
     <t>战斗点规则</t>
   </si>
   <si>
@@ -159,15 +166,48 @@
     <t>战役的差异化设计（关卡点和行军路线，军团数）</t>
   </si>
   <si>
-    <t>一个军团只能防守一个战役</t>
+    <t>防守时，一个军团只能防守一个战役</t>
+  </si>
+  <si>
+    <t>进攻时，军团会有军团战令数</t>
   </si>
   <si>
     <t>玩家按照等级分组，包括npc</t>
   </si>
   <si>
+    <t>1、2、3、4、5</t>
+  </si>
+  <si>
+    <t>6、7、8</t>
+  </si>
+  <si>
+    <t>9、10、11</t>
+  </si>
+  <si>
+    <t>12、13</t>
+  </si>
+  <si>
+    <t>14、15</t>
+  </si>
+  <si>
+    <t>16、17</t>
+  </si>
+  <si>
+    <t>18、19</t>
+  </si>
+  <si>
+    <t>20、21</t>
+  </si>
+  <si>
+    <t>22、</t>
+  </si>
+  <si>
     <t>战役有排行榜，早上8点至晚上10点，每隔一小时获得宝箱</t>
   </si>
   <si>
+    <t>早上8点至晚上10点，每隔一小时获得宝箱</t>
+  </si>
+  <si>
     <t>宝箱可积累，但有数量上限（6）</t>
   </si>
   <si>
@@ -177,19 +217,52 @@
     <t>每隔一段时间会有NPC进攻玩家的防守阵容</t>
   </si>
   <si>
-    <t>进攻方式为每日任务</t>
-  </si>
-  <si>
-    <t>接到任务，用[刘备]或[孙权]军团去进行一次【虎牢关之战】</t>
-  </si>
-  <si>
     <t>进攻对象为匹配排行榜上比自己靠前的玩家或NPC</t>
   </si>
   <si>
     <t>进攻胜利后，与比自身排名高的玩家交换排行榜的位置</t>
   </si>
   <si>
-    <t>根据任务进度，可领取任务宝箱</t>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>81至100</t>
+  </si>
+  <si>
+    <t>大胜</t>
+  </si>
+  <si>
+    <t>61至80</t>
+  </si>
+  <si>
+    <t>胜利</t>
+  </si>
+  <si>
+    <t>51至60</t>
+  </si>
+  <si>
+    <t>险胜</t>
+  </si>
+  <si>
+    <t>平局</t>
+  </si>
+  <si>
+    <t>41至49</t>
+  </si>
+  <si>
+    <t>惜败</t>
+  </si>
+  <si>
+    <t>21至40</t>
+  </si>
+  <si>
+    <t>败北</t>
+  </si>
+  <si>
+    <t>0至20</t>
+  </si>
+  <si>
+    <t>大败</t>
   </si>
   <si>
     <t>id</t>
@@ -247,9 +320,6 @@
   </si>
   <si>
     <t>关卡图片</t>
-  </si>
-  <si>
-    <t>积分</t>
   </si>
   <si>
     <t>上阵数</t>
@@ -347,10 +417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -375,39 +445,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,6 +465,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -435,7 +489,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,10 +504,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,16 +550,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,7 +603,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,25 +699,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,19 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,98 +787,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -728,16 +798,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,11 +838,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,6 +873,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,10 +917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,34 +929,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,108 +968,114 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4053,57 +4147,93 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>357505</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="圆角矩形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7764145" y="678180"/>
-          <a:ext cx="3559175" cy="1874520"/>
+          <a:off x="7620" y="7620"/>
+          <a:ext cx="3304540" cy="5861050"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257810</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="7620"/>
+          <a:ext cx="3305810" cy="5844540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4404,168 +4534,168 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="2">
         <v>1</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="2">
         <v>2</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="2">
         <v>3</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="19:19">
-      <c r="S10" s="1">
+      <c r="S10" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4580,175 +4710,320 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G44"/>
+  <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
+    <row r="9" spans="3:3">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="3:3">
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="1">
+    <row r="14" spans="3:3">
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="1">
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="1">
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="1">
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
-        <v>43</v>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
-        <v>44</v>
+      <c r="C26" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
-        <v>45</v>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="4">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="4">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="4">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="4">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="4">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="4">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="4">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="1" t="s">
+    <row r="45" spans="3:3">
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="1" t="s">
-        <v>56</v>
+      <c r="D60" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4779,36 +5054,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4816,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4825,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -4834,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -4845,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4854,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -4883,10 +5158,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4894,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4950,28 +5225,28 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4979,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4997,7 +5272,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5005,10 +5280,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5028,10 +5303,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -5051,10 +5326,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5074,10 +5349,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5111,70 +5386,70 @@
   <sheetData>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="S2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="U2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="V2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5186,4 +5461,24 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -417,10 +417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -445,6 +445,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -459,130 +582,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,13 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,13 +615,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,97 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,13 +675,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,25 +711,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,10 +829,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -849,30 +847,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,11 +875,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,10 +917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,133 +929,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5469,7 +5469,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,23 +4,54 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="思路1" sheetId="1" r:id="rId1"/>
-    <sheet name="思路2" sheetId="2" r:id="rId2"/>
-    <sheet name="战役表" sheetId="3" r:id="rId3"/>
-    <sheet name="战役关卡表" sheetId="5" r:id="rId4"/>
-    <sheet name="关卡表" sheetId="4" r:id="rId5"/>
-    <sheet name="npc战斗数据" sheetId="6" r:id="rId6"/>
-    <sheet name="UI" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
+    <sheet name="思路1" sheetId="1" r:id="rId2"/>
+    <sheet name="思路2" sheetId="2" r:id="rId3"/>
+    <sheet name="战役表" sheetId="3" r:id="rId4"/>
+    <sheet name="战役关卡表" sheetId="5" r:id="rId5"/>
+    <sheet name="关卡表" sheetId="4" r:id="rId6"/>
+    <sheet name="npc战斗数据" sheetId="6" r:id="rId7"/>
+    <sheet name="UI" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
+  <si>
+    <t>共性</t>
+  </si>
+  <si>
+    <t>积分排名+范围内随机匹配</t>
+  </si>
+  <si>
+    <t>排行榜+指定挑战</t>
+  </si>
+  <si>
+    <t>异步交互
+（攻防平衡）</t>
+  </si>
+  <si>
+    <t>· 排名主要受战力和策略影响，排行榜会在小范围内形成竞争</t>
+  </si>
+  <si>
+    <t>优点：目标随机带来的趣味性
+缺点：目标不明确</t>
+  </si>
+  <si>
+    <t>优点：目标明确
+缺点：目标太过固定，会失去趣味性</t>
+  </si>
+  <si>
+    <t>同步交互</t>
+  </si>
+  <si>
+    <t>无法实现</t>
+  </si>
   <si>
     <t>攻方</t>
   </si>
@@ -445,14 +476,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +498,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,19 +533,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,22 +550,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +566,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,37 +618,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,7 +634,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,19 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,13 +694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,19 +706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,31 +730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,13 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,19 +766,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,13 +802,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,8 +873,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,7 +898,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,6 +929,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -889,26 +952,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -917,10 +960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,19 +972,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,116 +993,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,6 +1120,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4526,6 +4590,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15" style="6" customWidth="1"/>
+    <col min="2" max="4" width="44" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="120" customHeight="1" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="120" customHeight="1" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4541,50 +4663,50 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S4" s="2">
         <v>1</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:20">
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S5" s="2">
         <v>2</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S6" s="2">
         <v>3</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S7" s="2">
         <v>4</v>
@@ -4592,7 +4714,7 @@
     </row>
     <row r="8" spans="3:19">
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="S8" s="2">
         <v>5</v>
@@ -4600,7 +4722,7 @@
     </row>
     <row r="9" spans="3:19">
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S9" s="2">
         <v>6</v>
@@ -4613,7 +4735,7 @@
     </row>
     <row r="11" spans="3:19">
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="S11" s="2">
         <v>8</v>
@@ -4621,82 +4743,82 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:G63"/>
@@ -4725,65 +4847,65 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -4791,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:4">
@@ -4799,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -4807,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -4815,37 +4937,37 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -4853,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -4861,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -4869,7 +4991,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -4877,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -4885,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -4893,7 +5015,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="3:4">
@@ -4901,7 +5023,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="3:4">
@@ -4909,7 +5031,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="3:4">
@@ -4917,81 +5039,81 @@
         <v>9</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="C59" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="3:4">
@@ -4999,31 +5121,31 @@
         <v>50</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="3:4">
       <c r="C62" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="3:4">
       <c r="C63" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5034,7 +5156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I4"/>
@@ -5054,36 +5176,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5091,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5100,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -5109,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -5120,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5129,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -5142,7 +5264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B9"/>
@@ -5158,10 +5280,10 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5169,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -5208,7 +5330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:H7"/>
@@ -5225,28 +5347,28 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5254,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5272,7 +5394,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5280,10 +5402,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5303,10 +5425,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -5326,10 +5448,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5349,10 +5471,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5373,7 +5495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:V3"/>
@@ -5386,70 +5508,70 @@
   <sheetData>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="R2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="T2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="U2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="V2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5463,13 +5585,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="20928" windowHeight="9960" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="关卡表" sheetId="4" r:id="rId6"/>
     <sheet name="npc战斗数据" sheetId="6" r:id="rId7"/>
     <sheet name="UI" sheetId="7" r:id="rId8"/>
+    <sheet name="对决" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="178">
   <si>
     <t>共性</t>
   </si>
@@ -441,6 +442,123 @@
   </si>
   <si>
     <t>pos19</t>
+  </si>
+  <si>
+    <t>军团</t>
+  </si>
+  <si>
+    <t>关卡1</t>
+  </si>
+  <si>
+    <t>关卡2</t>
+  </si>
+  <si>
+    <t>关卡3</t>
+  </si>
+  <si>
+    <t>关卡4</t>
+  </si>
+  <si>
+    <t>关卡5</t>
+  </si>
+  <si>
+    <t>总上阵数</t>
+  </si>
+  <si>
+    <t>汜水关</t>
+  </si>
+  <si>
+    <t>荥阳</t>
+  </si>
+  <si>
+    <t>濮阳之战</t>
+  </si>
+  <si>
+    <t>东郡</t>
+  </si>
+  <si>
+    <t>徐州</t>
+  </si>
+  <si>
+    <t>濮阳</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>白马</t>
+  </si>
+  <si>
+    <t>延津</t>
+  </si>
+  <si>
+    <t>乌巢</t>
+  </si>
+  <si>
+    <t>官渡</t>
+  </si>
+  <si>
+    <t>平定江东</t>
+  </si>
+  <si>
+    <t>曲阿</t>
+  </si>
+  <si>
+    <t>钱塘</t>
+  </si>
+  <si>
+    <t>丹杨</t>
+  </si>
+  <si>
+    <t>豫章</t>
+  </si>
+  <si>
+    <t>吴郡</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>征讨辽东</t>
+  </si>
+  <si>
+    <t>邺</t>
+  </si>
+  <si>
+    <t>南皮</t>
+  </si>
+  <si>
+    <t>幽州</t>
+  </si>
+  <si>
+    <t>白狼山</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>赤壁之战</t>
+  </si>
+  <si>
+    <t>新野</t>
+  </si>
+  <si>
+    <t>长坂坡</t>
+  </si>
+  <si>
+    <t>江陵</t>
+  </si>
+  <si>
+    <t>荆州</t>
+  </si>
+  <si>
+    <t>赤壁</t>
+  </si>
+  <si>
+    <t>司马</t>
+  </si>
+  <si>
+    <t>孙权</t>
   </si>
 </sst>
 </file>
@@ -448,10 +566,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -483,7 +601,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,7 +652,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,66 +675,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -580,13 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -596,8 +698,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +723,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,7 +764,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,13 +806,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,19 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +848,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,25 +872,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,13 +908,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,61 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,15 +988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -897,34 +1006,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,6 +1044,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -960,10 +1078,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,137 +1090,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,9 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4592,8 +4707,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -4622,10 +4737,10 @@
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4634,8 +4749,8 @@
         <v>7</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5603,4 +5718,295 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
+    <col min="4" max="8" width="6.66666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2">
+        <f>SUM(I2:M2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3"/>
+      <c r="N3">
+        <f>SUM(I3:M3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <f>SUM(I4:M4)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <f>SUM(I5:M5)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6">
+        <f>SUM(I6:M6)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <f>SUM(I7:M7)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" activeTab="8"/>
+    <workbookView windowWidth="20928" windowHeight="9960" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="npc战斗数据" sheetId="6" r:id="rId7"/>
     <sheet name="UI" sheetId="7" r:id="rId8"/>
     <sheet name="对决" sheetId="9" r:id="rId9"/>
+    <sheet name="奖励" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="195">
   <si>
     <t>共性</t>
   </si>
@@ -559,6 +560,57 @@
   </si>
   <si>
     <t>孙权</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>玉阙</t>
+  </si>
+  <si>
+    <t>元宝</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>宝箱档次</t>
+  </si>
+  <si>
+    <t>2、3</t>
+  </si>
+  <si>
+    <t>4到10</t>
+  </si>
+  <si>
+    <t>11到100</t>
+  </si>
+  <si>
+    <t>101以上</t>
+  </si>
+  <si>
+    <t>101~500</t>
+  </si>
+  <si>
+    <t>500~1000</t>
+  </si>
+  <si>
+    <t>1000~</t>
   </si>
 </sst>
 </file>
@@ -567,9 +619,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -594,14 +646,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,15 +697,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,11 +720,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,30 +760,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,53 +788,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -764,19 +822,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,43 +894,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,13 +924,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,13 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,73 +978,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,17 +1031,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,42 +1063,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,11 +1089,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,10 +1136,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,171 +1148,180 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4713,45 +4780,2482 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15" style="6" customWidth="1"/>
-    <col min="2" max="4" width="44" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="6"/>
+    <col min="1" max="1" width="15" style="9" customWidth="1"/>
+    <col min="2" max="4" width="44" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="120" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="120" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="14" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>800</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>450</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>450</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>450</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>450</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>450</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>450</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>450</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>450</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>450</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>450</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>400</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>400</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>400</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>400</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>400</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>400</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>400</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>400</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>400</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>350</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>350</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>350</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>350</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>350</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>350</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>350</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>350</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>350</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>350</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>350</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>350</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>350</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>350</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>350</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>350</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>350</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>350</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>350</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>350</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>300</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>300</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>300</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>300</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>300</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>300</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>300</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>300</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>300</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>300</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>300</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>300</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>300</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>300</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>300</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>300</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>300</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>300</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>300</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>300</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>300</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>300</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>300</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>300</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>300</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>300</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>300</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>300</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>300</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>300</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>300</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>300</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>300</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>300</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>300</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>300</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>300</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>300</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>300</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>4</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>300</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>300</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>300</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>300</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>300</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>4</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>300</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>300</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>300</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>300</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>4</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>300</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>300</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102">
+        <v>250</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103">
+        <v>200</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104">
+        <v>100</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
+      </c>
+      <c r="I104">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4771,168 +7275,168 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="2">
-        <v>2</v>
-      </c>
-      <c r="T5" s="2" t="s">
+      <c r="S5" s="5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="5">
         <v>3</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="19:19">
-      <c r="S10" s="2">
+      <c r="S10" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4955,311 +7459,311 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>4</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="4">
+      <c r="C33" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="4">
+      <c r="C35" s="7">
         <v>3</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="4">
+      <c r="C36" s="7">
         <v>4</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="4">
-        <v>5</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="7">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="4">
+      <c r="C38" s="7">
         <v>6</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="4">
+      <c r="C39" s="7">
         <v>7</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="4">
+      <c r="C40" s="7">
         <v>8</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="4">
+      <c r="C41" s="7">
         <v>9</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="2">
+      <c r="C60" s="5">
         <v>50</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5711,7 +8215,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="4"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5725,8 +8229,8 @@
   <sheetPr/>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5786,10 +8290,8 @@
       <c r="K2">
         <v>5</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2">
-        <f>SUM(I2:M2)</f>
+        <f t="shared" ref="N2:N7" si="0">SUM(I2:M2)</f>
         <v>11</v>
       </c>
     </row>
@@ -5818,9 +8320,8 @@
       <c r="K3">
         <v>7</v>
       </c>
-      <c r="L3"/>
       <c r="N3">
-        <f>SUM(I3:M3)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -5859,7 +8360,7 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <f>SUM(I4:M4)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -5901,7 +8402,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <f>SUM(I5:M5)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -5939,9 +8440,8 @@
       <c r="L6">
         <v>10</v>
       </c>
-      <c r="M6"/>
       <c r="N6">
-        <f>SUM(I6:M6)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -5986,7 +8486,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <f>SUM(I7:M7)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="20928" windowHeight="9960" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -523,7 +523,7 @@
     <t>征讨辽东</t>
   </si>
   <si>
-    <t>邺</t>
+    <t>邺城</t>
   </si>
   <si>
     <t>南皮</t>
@@ -619,9 +619,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -646,7 +646,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,61 +688,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,8 +711,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,8 +750,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,32 +768,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -822,7 +822,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,13 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,157 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,17 +1031,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,35 +1105,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,10 +1136,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,19 +1148,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,112 +1169,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4832,12 +4832,12 @@
   <sheetPr/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8227,45 +8227,45 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="8" width="6.66666666666667" customWidth="1"/>
+    <col min="4" max="12" width="6.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>140</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>141</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>142</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>144</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:18">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8275,27 +8275,27 @@
       <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>147</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N7" si="0">SUM(I2:M2)</f>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R7" si="0">SUM(M2:Q2)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:18">
       <c r="B3">
         <v>2</v>
       </c>
@@ -8305,27 +8305,27 @@
       <c r="D3" t="s">
         <v>149</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>150</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>151</v>
       </c>
-      <c r="I3">
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
         <v>7</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -8338,33 +8338,33 @@
       <c r="D4" t="s">
         <v>153</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>154</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>155</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>156</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
         <v>7</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:18">
       <c r="B5">
         <v>4</v>
       </c>
@@ -8374,39 +8374,39 @@
       <c r="D5" t="s">
         <v>158</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>159</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>160</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>161</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>162</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -8419,33 +8419,33 @@
       <c r="D6" t="s">
         <v>165</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>166</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>167</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>168</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -8458,34 +8458,34 @@
       <c r="D7" t="s">
         <v>171</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>172</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>173</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>174</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>175</v>
       </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
       <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
         <v>7</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="UI" sheetId="7" r:id="rId8"/>
     <sheet name="对决" sheetId="9" r:id="rId9"/>
     <sheet name="奖励" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="212">
   <si>
     <t>共性</t>
   </si>
@@ -611,6 +612,57 @@
   </si>
   <si>
     <t>1000~</t>
+  </si>
+  <si>
+    <t>基本规则</t>
+  </si>
+  <si>
+    <t>对决玩法中包含多个战役，每个战役都有一个排行榜</t>
+  </si>
+  <si>
+    <t>在玩法开启时间段内，可向任意一个排行榜上的其他玩家发起挑战</t>
+  </si>
+  <si>
+    <t>排名规则实行【插位排序】，即挑战胜利后，排行榜上的名次会提前至挑战目标前一位</t>
+  </si>
+  <si>
+    <t>玩法正式上线后，挑战时间为晚上22：00至次日21：00</t>
+  </si>
+  <si>
+    <t>21：00至22：00期间会进行战场清理，并根据排行榜的名次结算奖励</t>
+  </si>
+  <si>
+    <t>选择一个战役，挑战开始前，需要选择一个军团。在当天内，该军团会与该战役绑定</t>
+  </si>
+  <si>
+    <t>战场清理后，此绑定关系会被解除</t>
+  </si>
+  <si>
+    <t>战斗胜利视为通过关卡。通过全部关卡后，判定为挑战成功</t>
+  </si>
+  <si>
+    <t>挑战成功后，挑战中使用的阵容会自动保存，不可更改（除非再次进行挑战）</t>
+  </si>
+  <si>
+    <t>测试版本</t>
+  </si>
+  <si>
+    <t>测试版本开启的内容包括挑战，战役排行榜等</t>
+  </si>
+  <si>
+    <t>为了提高测试效率，挑战时间为2小时，战场清理时间为5分钟，往复循环</t>
+  </si>
+  <si>
+    <t>测试版本奖励暂不开启</t>
+  </si>
+  <si>
+    <t>倒计时目前显示上有点问题，不影响测试</t>
+  </si>
+  <si>
+    <t>用测试版本覆盖即刻</t>
+  </si>
+  <si>
+    <t>测试版本的数据不会影响到正式服</t>
   </si>
 </sst>
 </file>
@@ -618,10 +670,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -652,112 +704,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,9 +720,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,13 +801,58 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -822,25 +880,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,19 +946,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,55 +976,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,19 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,25 +1024,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,6 +1089,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1042,15 +1126,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,26 +1156,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,8 +1181,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,10 +1194,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,141 +1206,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1291,37 +1358,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4780,44 +4847,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15" style="9" customWidth="1"/>
-    <col min="2" max="4" width="44" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="9"/>
+    <col min="1" max="1" width="15" style="12" customWidth="1"/>
+    <col min="2" max="4" width="44" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="120" customHeight="1" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="120" customHeight="1" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4843,31 +4910,31 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4916,10 +4983,10 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4945,10 +5012,10 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4974,10 +5041,10 @@
       <c r="I5">
         <v>5</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5003,10 +5070,10 @@
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5032,10 +5099,10 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5061,10 +5128,10 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="5">
         <v>4</v>
       </c>
     </row>
@@ -7256,6 +7323,112 @@
       </c>
       <c r="I104">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="2"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -7275,168 +7448,168 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="8">
         <v>1</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="5">
-        <v>2</v>
-      </c>
-      <c r="T5" s="5" t="s">
+      <c r="S5" s="8">
+        <v>2</v>
+      </c>
+      <c r="T5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="8">
         <v>3</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="19:19">
-      <c r="S10" s="5">
+      <c r="S10" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7459,311 +7632,311 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>3</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="7">
+      <c r="C33" s="10">
         <v>1</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="7">
+      <c r="C35" s="10">
         <v>3</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="7">
+      <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="7">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="10">
+        <v>5</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="7">
+      <c r="C38" s="10">
         <v>6</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="7">
+      <c r="C39" s="10">
         <v>7</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="7">
+      <c r="C40" s="10">
         <v>8</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="7">
+      <c r="C41" s="10">
         <v>9</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="5">
+      <c r="C60" s="8">
         <v>50</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8215,7 +8388,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="4"/>
+    <col min="1" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8229,7 +8402,7 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -650,7 +650,7 @@
     <t>测试版本开启的内容包括挑战，战役排行榜等</t>
   </si>
   <si>
-    <t>为了提高测试效率，挑战时间为2小时，战场清理时间为5分钟，往复循环</t>
+    <t>为了提高测试效率，挑战时间为4小时，战场清理时间为15分钟，往复循环</t>
   </si>
   <si>
     <t>测试版本奖励暂不开启</t>
@@ -670,10 +670,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -698,13 +698,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -712,16 +711,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,21 +720,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,14 +740,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -788,8 +756,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,30 +826,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,25 +868,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,25 +904,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,19 +940,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,49 +1000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,13 +1018,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,37 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,13 +1083,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,45 +1142,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,8 +1172,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1194,10 +1188,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,37 +1200,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1245,105 +1233,108 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1373,22 +1364,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4847,44 +4835,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15" style="12" customWidth="1"/>
-    <col min="2" max="4" width="44" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="12"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="4" width="44" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="120" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="120" customHeight="1" spans="1:4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4910,31 +4898,31 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4983,10 +4971,10 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5012,10 +5000,10 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>1</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5041,10 +5029,10 @@
       <c r="I5">
         <v>5</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5070,10 +5058,10 @@
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -5099,10 +5087,10 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>3</v>
       </c>
     </row>
@@ -5128,10 +5116,10 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>4</v>
       </c>
     </row>
@@ -7337,7 +7325,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelCol="5"/>
@@ -7348,7 +7336,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -7398,12 +7386,11 @@
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="3"/>
+    <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
         <v>206</v>
       </c>
@@ -7448,168 +7435,168 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>1</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="8">
-        <v>2</v>
-      </c>
-      <c r="T5" s="8" t="s">
+      <c r="S5" s="7">
+        <v>2</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <v>3</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="19:19">
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7632,311 +7619,311 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>1</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="10">
-        <v>2</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="9">
+        <v>2</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>3</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>4</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="10">
-        <v>5</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="9">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>6</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>7</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>8</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>9</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>50</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8388,7 +8375,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="16384" width="8.88888888888889" style="6"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="20928" windowHeight="9960" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="215">
   <si>
     <t>共性</t>
   </si>
@@ -617,31 +617,40 @@
     <t>基本规则</t>
   </si>
   <si>
-    <t>对决玩法中包含多个战役，每个战役都有一个排行榜</t>
-  </si>
-  <si>
-    <t>在玩法开启时间段内，可向任意一个排行榜上的其他玩家发起挑战</t>
-  </si>
-  <si>
-    <t>排名规则实行【插位排序】，即挑战胜利后，排行榜上的名次会提前至挑战目标前一位</t>
-  </si>
-  <si>
-    <t>玩法正式上线后，挑战时间为晚上22：00至次日21：00</t>
-  </si>
-  <si>
-    <t>21：00至22：00期间会进行战场清理，并根据排行榜的名次结算奖励</t>
-  </si>
-  <si>
-    <t>选择一个战役，挑战开始前，需要选择一个军团。在当天内，该军团会与该战役绑定</t>
-  </si>
-  <si>
-    <t>战场清理后，此绑定关系会被解除</t>
-  </si>
-  <si>
-    <t>战斗胜利视为通过关卡。通过全部关卡后，判定为挑战成功</t>
-  </si>
-  <si>
-    <t>挑战成功后，挑战中使用的阵容会自动保存，不可更改（除非再次进行挑战）</t>
+    <t>【基本规则】\n</t>
+  </si>
+  <si>
+    <t>对决玩法中包含多个战役，每个战役都有一个排行榜。\n</t>
+  </si>
+  <si>
+    <t>在玩法开启时间段内，可向任意一个排行榜上的其他玩家发起挑战。\n</t>
+  </si>
+  <si>
+    <t>排名规则实行【插位排序】，即挑战胜利后，排行榜上的名次会提升至[挑战目标]的前一位。\n</t>
+  </si>
+  <si>
+    <t>玩法开启时间段为晚上22：00至次日21：00。\n</t>
+  </si>
+  <si>
+    <t>21：00至22：00期间会进行战场清理，并根据排行榜的名次结算奖励。\n\n</t>
+  </si>
+  <si>
+    <t>【挑战规则】\n</t>
+  </si>
+  <si>
+    <t>选择挑战目标，进入地图页面后，可选择军团，并进行挑战。\n</t>
+  </si>
+  <si>
+    <t>通过全部关卡后，判定为最终挑战成功。\n</t>
+  </si>
+  <si>
+    <t>若挑战成功，挑战中使用的阵容会自动保存，不可更改（除非再次进行挑战）。\n</t>
+  </si>
+  <si>
+    <t>若挑战成功，在下次[战场清理]前，该军团会与该战役绑定。\n</t>
+  </si>
+  <si>
+    <t>[战场清理]后，军团的与战役之间的绑定关系会被解除。\n</t>
   </si>
   <si>
     <t>测试版本</t>
@@ -671,9 +680,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -697,6 +706,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -705,7 +729,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,30 +805,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,78 +842,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,6 +883,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -886,19 +943,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,73 +1015,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,73 +1063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,6 +1093,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1094,6 +1138,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,40 +1170,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,17 +1189,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1188,10 +1197,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1200,133 +1209,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7322,10 +7331,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelCol="5"/>
@@ -7355,67 +7364,82 @@
         <v>198</v>
       </c>
     </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/系统_战场_对决.xlsx
+++ b/策划文档/系统_战场_对决.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -679,10 +679,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -706,9 +706,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,6 +728,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -735,8 +803,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,100 +843,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,6 +883,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -895,7 +901,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,25 +961,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,25 +1015,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,91 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,41 +1093,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1142,11 +1107,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,22 +1141,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,10 +1197,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,133 +1209,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7334,7 +7334,7 @@
   <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelCol="5"/>
